--- a/Source/Test/Data/PageBreakTest.xlsx
+++ b/Source/Test/Data/PageBreakTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\【業務用フォルダ】\Codeer.LowCode.Blazor\【ExcelReportPDFgit】\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A50E83-A676-4F18-A687-0DF98B6BA53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEC130A-234D-4DE1-99D3-D0B82DD6C936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1940" windowWidth="38620" windowHeight="21100" xr2:uid="{CC6A1564-7E12-4F5A-9D58-9D0703265E2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC6A1564-7E12-4F5A-9D58-9D0703265E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -445,11 +445,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A5715-256E-45D1-B6AE-C3EF3E47CDB5}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -580,6 +578,56 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/Test/Data/PageBreakTest.xlsx
+++ b/Source/Test/Data/PageBreakTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\【業務用フォルダ】\Codeer.LowCode.Blazor\【ExcelReportPDFgit】\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEC130A-234D-4DE1-99D3-D0B82DD6C936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919400EA-4B09-4004-9857-E349BD7FC676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC6A1564-7E12-4F5A-9D58-9D0703265E2C}"/>
   </bookViews>
@@ -445,9 +445,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A5715-256E-45D1-B6AE-C3EF3E47CDB5}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -628,6 +628,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
